--- a/models/feature-selection/mlp/hypertuning/evaluation_mlp.xlsx
+++ b/models/feature-selection/mlp/hypertuning/evaluation_mlp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>r2_train_with_ga</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>r2_test_with_ga</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>r2_train_mlp_with_optimization</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>r2_test_mlp_with_optimization</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>r2_train_mlp_without_optimization</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>r2_test_mlp_without_optimization</t>
         </is>
@@ -467,15 +477,21 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>0.55</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>0.51</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -486,15 +502,21 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.73</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>0.73</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>0.45</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -505,15 +527,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="C4" t="n">
         <v>0.89</v>
       </c>
       <c r="D4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.83</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -524,15 +552,21 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.64</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>0.63</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>0.74</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -543,15 +577,21 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.82</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>0.82</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>0.77</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.65</v>
       </c>
     </row>
